--- a/changes/r870-stocks.xlsx
+++ b/changes/r870-stocks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lingl\Documents\deadline-balancing\changes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{047D0E76-1116-4C68-B6E8-DF0FFE1A1FEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BB69203-6FE8-4DCE-811C-CAB5CCFD3773}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1055,7 +1055,7 @@
   <dimension ref="A1:AA35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="X10" sqref="X10"/>
+      <selection activeCell="V14" sqref="V14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1279,10 +1279,10 @@
         <v>4.2</v>
       </c>
       <c r="P5">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Q5">
-        <v>0.2</v>
+        <v>0.22</v>
       </c>
       <c r="R5">
         <v>-12</v>
@@ -1295,7 +1295,7 @@
       </c>
       <c r="AA5">
         <f>P5-Q5*20-R5*0.8-S5*0.6</f>
-        <v>27.8</v>
+        <v>26.400000000000002</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
@@ -1325,23 +1325,23 @@
         <v>6.2000000000000011</v>
       </c>
       <c r="P6">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="Q6">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="R6">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="S6">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="Z6">
         <v>1000</v>
       </c>
       <c r="AA6">
         <f t="shared" ref="AA6:AA24" si="2">P6-Q6*20-R6*0.8-S6*0.6</f>
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
@@ -1374,7 +1374,7 @@
         <v>-2</v>
       </c>
       <c r="Q7">
-        <v>0.09</v>
+        <v>0.12</v>
       </c>
       <c r="R7">
         <v>2</v>
@@ -1387,7 +1387,7 @@
       </c>
       <c r="AA7">
         <f t="shared" si="2"/>
-        <v>-6.6000000000000005</v>
+        <v>-7.2</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
@@ -1427,23 +1427,23 @@
         <v>6.0000000000000009</v>
       </c>
       <c r="P9">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q9">
         <v>0.08</v>
       </c>
       <c r="R9">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="S9">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="Z9">
         <v>1000</v>
       </c>
       <c r="AA9">
         <f t="shared" si="2"/>
-        <v>-4</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
@@ -1467,23 +1467,23 @@
         <v>1.6</v>
       </c>
       <c r="P10">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="Q10">
         <v>0.02</v>
       </c>
       <c r="R10">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="S10">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="Z10">
         <v>100</v>
       </c>
       <c r="AA10">
         <f t="shared" si="2"/>
-        <v>18.000000000000004</v>
+        <v>4.3999999999999995</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
@@ -1510,7 +1510,7 @@
         <v>-1</v>
       </c>
       <c r="Q11">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="R11">
         <v>-2</v>
@@ -1523,7 +1523,7 @@
       </c>
       <c r="AA11">
         <f t="shared" si="2"/>
-        <v>0.8</v>
+        <v>-0.19999999999999996</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
@@ -1563,23 +1563,23 @@
         <v>24.4</v>
       </c>
       <c r="P13">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Q13">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R13">
-        <v>-10</v>
+        <v>-11</v>
       </c>
       <c r="S13">
-        <v>-14</v>
+        <v>-16</v>
       </c>
       <c r="Z13">
         <v>1000</v>
       </c>
       <c r="AA13">
         <f t="shared" si="2"/>
-        <v>24.4</v>
+        <v>26.4</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
@@ -1613,7 +1613,7 @@
         <v>15</v>
       </c>
       <c r="Q14">
-        <v>0.16</v>
+        <v>0.2</v>
       </c>
       <c r="R14">
         <v>-8</v>
@@ -1626,7 +1626,7 @@
       </c>
       <c r="AA14">
         <f t="shared" si="2"/>
-        <v>24.200000000000003</v>
+        <v>23.4</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
@@ -1740,7 +1740,7 @@
         <v>16</v>
       </c>
       <c r="Q17">
-        <v>0.2</v>
+        <v>0.22</v>
       </c>
       <c r="R17">
         <v>-10</v>
@@ -1753,7 +1753,7 @@
       </c>
       <c r="AA17">
         <f>P17-Q17*20-R17*0.8-S17*0.6</f>
-        <v>26</v>
+        <v>25.6</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.25">
@@ -1950,23 +1950,23 @@
         <v>52</v>
       </c>
       <c r="C24">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D24">
-        <v>0.19</v>
+        <v>0.34</v>
       </c>
       <c r="E24">
         <v>-9</v>
       </c>
       <c r="F24">
-        <v>-8</v>
+        <v>-10</v>
       </c>
       <c r="M24">
         <v>800</v>
       </c>
       <c r="N24">
         <f t="shared" si="1"/>
-        <v>25.2</v>
+        <v>24.4</v>
       </c>
       <c r="P24">
         <v>17</v>
@@ -2046,11 +2046,11 @@
       </c>
       <c r="P26">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Q26">
         <f t="shared" si="3"/>
-        <v>0.2</v>
+        <v>0.22</v>
       </c>
       <c r="R26">
         <f t="shared" si="3"/>
@@ -2090,7 +2090,7 @@
       </c>
       <c r="AA26">
         <f t="shared" si="3"/>
-        <v>27.8</v>
+        <v>26.400000000000002</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.25">
@@ -2151,19 +2151,19 @@
       </c>
       <c r="P27">
         <f t="shared" si="4"/>
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="Q27">
         <f t="shared" si="4"/>
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="R27">
         <f t="shared" si="4"/>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="S27">
         <f t="shared" si="4"/>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="T27">
         <f t="shared" si="4"/>
@@ -2195,7 +2195,7 @@
       </c>
       <c r="AA27">
         <f t="shared" si="4"/>
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.25">
@@ -2204,11 +2204,11 @@
       </c>
       <c r="C28">
         <f>C7+C23+C24</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D28">
-        <f t="shared" ref="D28:AA28" si="5">D7+D23+D24</f>
-        <v>0.41000000000000003</v>
+        <f t="shared" ref="D28:AA29" si="5">D7+D23+D24</f>
+        <v>0.56000000000000005</v>
       </c>
       <c r="E28">
         <f t="shared" si="5"/>
@@ -2216,7 +2216,7 @@
       </c>
       <c r="F28">
         <f t="shared" si="5"/>
-        <v>-15</v>
+        <v>-17</v>
       </c>
       <c r="G28">
         <f t="shared" si="5"/>
@@ -2248,7 +2248,7 @@
       </c>
       <c r="N28">
         <f t="shared" si="5"/>
-        <v>28.599999999999998</v>
+        <v>27.799999999999997</v>
       </c>
       <c r="O28">
         <f t="shared" si="5"/>
@@ -2260,7 +2260,7 @@
       </c>
       <c r="Q28">
         <f t="shared" si="5"/>
-        <v>0.36</v>
+        <v>0.39</v>
       </c>
       <c r="R28">
         <f t="shared" si="5"/>
@@ -2300,7 +2300,7 @@
       </c>
       <c r="AA28">
         <f t="shared" si="5"/>
-        <v>28.2</v>
+        <v>27.599999999999998</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.25">
@@ -2361,7 +2361,7 @@
       </c>
       <c r="P29">
         <f t="shared" si="6"/>
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="Q29">
         <f t="shared" si="6"/>
@@ -2405,7 +2405,7 @@
       </c>
       <c r="AA29">
         <f t="shared" si="6"/>
-        <v>14.000000000000004</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.25">
@@ -2414,11 +2414,11 @@
       </c>
       <c r="C30">
         <f>C9+C11+C24</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D30">
         <f t="shared" ref="D30:AA30" si="7">D9+D11+D24</f>
-        <v>0.46</v>
+        <v>0.6100000000000001</v>
       </c>
       <c r="E30">
         <f t="shared" si="7"/>
@@ -2426,7 +2426,7 @@
       </c>
       <c r="F30">
         <f t="shared" si="7"/>
-        <v>-10</v>
+        <v>-12</v>
       </c>
       <c r="G30">
         <f t="shared" si="7"/>
@@ -2458,7 +2458,7 @@
       </c>
       <c r="N30">
         <f t="shared" si="7"/>
-        <v>23.4</v>
+        <v>22.6</v>
       </c>
       <c r="O30">
         <f t="shared" si="7"/>
@@ -2466,19 +2466,19 @@
       </c>
       <c r="P30">
         <f t="shared" si="7"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Q30">
         <f t="shared" si="7"/>
-        <v>0.32</v>
+        <v>0.37</v>
       </c>
       <c r="R30">
         <f t="shared" si="7"/>
-        <v>-10</v>
+        <v>-14</v>
       </c>
       <c r="S30">
         <f t="shared" si="7"/>
-        <v>-9</v>
+        <v>-13</v>
       </c>
       <c r="T30">
         <f t="shared" si="7"/>
@@ -2510,7 +2510,7 @@
       </c>
       <c r="AA30">
         <f t="shared" si="7"/>
-        <v>22</v>
+        <v>27.6</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.25">
@@ -2571,19 +2571,19 @@
       </c>
       <c r="P31">
         <f t="shared" si="8"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Q31">
         <f t="shared" si="8"/>
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R31">
         <f t="shared" si="8"/>
-        <v>-10</v>
+        <v>-11</v>
       </c>
       <c r="S31">
         <f t="shared" si="8"/>
-        <v>-14</v>
+        <v>-16</v>
       </c>
       <c r="T31">
         <f t="shared" si="8"/>
@@ -2615,7 +2615,7 @@
       </c>
       <c r="AA31">
         <f t="shared" si="8"/>
-        <v>24.4</v>
+        <v>26.4</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.25">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="Q32">
         <f t="shared" si="9"/>
-        <v>0.2</v>
+        <v>0.24000000000000002</v>
       </c>
       <c r="R32">
         <f t="shared" si="9"/>
@@ -2720,7 +2720,7 @@
       </c>
       <c r="AA32">
         <f t="shared" si="9"/>
-        <v>27.400000000000002</v>
+        <v>26.599999999999998</v>
       </c>
     </row>
     <row r="33" spans="2:27" x14ac:dyDescent="0.25">
@@ -2785,7 +2785,7 @@
       </c>
       <c r="Q33">
         <f t="shared" si="10"/>
-        <v>0.25</v>
+        <v>0.27</v>
       </c>
       <c r="R33">
         <f t="shared" si="10"/>
@@ -2825,7 +2825,7 @@
       </c>
       <c r="AA33">
         <f t="shared" si="10"/>
-        <v>27</v>
+        <v>26.6</v>
       </c>
     </row>
     <row r="35" spans="2:27" x14ac:dyDescent="0.25">
